--- a/biology/Zoologie/Helmand_(rivière)/Helmand_(rivière).xlsx
+++ b/biology/Zoologie/Helmand_(rivière)/Helmand_(rivière).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Helmand_(rivi%C3%A8re)</t>
+          <t>Helmand_(rivière)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Helmand, appelé aussi Helmund, Helmend, Hilmand ou Hirmand (en persan : Hirmand, هیرمند), est une rivière du sud-ouest de l'Afghanistan et de l'est de l'Iran. Elle est longue de 1 150 km. C'est une des rivières les plus importantes d'Afghanistan, la principale du bassin endoréique du Sistan. L'Helmand traverse les provinces afghanes du Wardak, Bamiyan, Orozgân, Helmand et Nimrôz, ainsi que la province iranienne du Sistan-et-Baloutchistan.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Helmand_(rivi%C3%A8re)</t>
+          <t>Helmand_(rivière)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,13 +524,15 @@
           <t>Géographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Helmand naît à peu de distance à l'ouest de Kaboul, dans les monts du Koh-e-Paghman (province afghane de Wardak). Le cours d'eau adopte rapidement la direction de l'ouest puis du sud-ouest. Il reçoit dans son cours supérieur, en rive droite, de petits affluents abondants bien alimentés par les pluies, neiges et glaciers du versant sud du Koh-i Baba. Dans son cours moyen, il traverse vers le sud-ouest des régions montagneuses arides et peu peuplées.
 Dans la province d'Uruzgan il reçoit de gauche la rivière Tirin Roud. Cinquante kilomètres plus loin, son cours est barré par le barrage de Kajakai, construit en 1952 par Morrison-Knudson dans la province d'Helmand, et forme de ce fait un lac de 107 km2. Environ 40 km plus au sud-ouest, au confluent d'un abondant tributaire, le Musa Qala venu du nord (rive droite), se trouve la ville de Sangin. Il quitte les montagnes au niveau de la ville de Girichk où il est enjambé par la grand route Kaboul-Hérat.
 La rivière se dirige de manière assez rectiligne vers les plaines de sud-ouest de l'Afghanistan, où se déroule son cours inférieur. Là, après avoir reçu en rive gauche, les eaux de l'important Arghandab aux environs de la ville de Lachkar Gah, il s'engage dans les régions désolées du sud-ouest afghan. Son cours sépare le désert du Dasht-e-Margo à droite du désert sableux appelé Registan, à gauche. En fin de parcours, s'approchant de la frontière du Pakistan, la rivière effectue une large boucle vers l'ouest puis le nord, et pénètre ainsi en territoire iranien, où a été formé un important delta.
 À la frontière, juste après avoir arrosé le village de Char Bujak, l'Helmand se divise en deux bras principaux. Le premier (à gauche) appelé Sistan coule directement en Iran et forme le lac iranien appelé Hamoun-e Helmand. Le second (au nord), le Parian, passe par la ville de Zaranj, et forme la frontière irano-afghane sur une vingtaine de kilomètres, ensuite il revient en Afghanistan et se jette dans le lac binational Hamoun-e Puzak. Notons que le Parian reçoit plusieurs petits affluents afghans drainant une surface de quelque 1 900 kilomètres carrés.
-La totalité des eaux de l'Helmand se répartit finalement dans le système endoréique des lacs (appelés Hamouns) du Sistan, à cheval sur le territoire des deux pays, où elles finissent par s'évaporer totalement[1].
+La totalité des eaux de l'Helmand se répartit finalement dans le système endoréique des lacs (appelés Hamouns) du Sistan, à cheval sur le territoire des deux pays, où elles finissent par s'évaporer totalement.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Helmand_(rivi%C3%A8re)</t>
+          <t>Helmand_(rivière)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Les Hamouns du Sistan</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Hamouns du Sistan (ou Seistan) sont une série de lacs de faible profondeur situés au centre de la cuvette irano-afghane du Sistan (pays des Sakas). Ces lacs, formant un large demi-cercle à convexité nord-ouest, reçoivent les eaux des rivières Adrachkan (ou Harout), Farah Roud, Khach et Helmand, toutes issues des montagnes de l'Afghanistan, ainsi que de quelques autres petits cours d'eau peu importants. Au centre de ce demi-cercle formé par la chaîne des hamouns se trouve, presque totalement en territoire iranien, le delta de l'Helmand, de loin le plus grand contributeur à l'ensemble.
 La chaîne des hamouns est située à cheval sur les deux pays, mais est plus centrée sur le territoire iranien, tandis que les eaux les alimentant proviennent presque exclusivement d'Afghanistan.
@@ -561,7 +577,7 @@
 Les trois principaux hamouns sont l'Hamoun-e Puzak, l'Hamoun-e Saberi et l'Hamoun-e Hirmand.
 L'ensemble du système des hamouns est parfois appelé Lac Hamoun ou Lac Hamun.
 La contenance maximale de l'ensemble des cinq hamouns, avant que leur volume ne déborde par leur exutoire naturel le Chile, est estimée à 13 025,6 millions m3, c'est-à-dire un peu plus de 13 kilomètres cubes.
-Du côté iranien, la plaine du delta couvre environ 2 500 km2 ; le système des terres humides environnantes a une superficie de plus ou moins 5 000 km2[2].
+Du côté iranien, la plaine du delta couvre environ 2 500 km2 ; le système des terres humides environnantes a une superficie de plus ou moins 5 000 km2.
 Les lacs sont l'un des principaux et des plus précieux écosystèmes d'Iran. Ils font intégralement partie de la convention de Ramsar sur les zones humides, et sont classés comme réserve de biosphère par l'UNESCO.
 </t>
         </is>
@@ -573,7 +589,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Helmand_(rivi%C3%A8re)</t>
+          <t>Helmand_(rivière)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -591,9 +607,11 @@
           <t>Retenues d'eau et barrages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le barrage de Kajakai, dans la province d'Helmand, a créé un énorme réservoir d'une capacité de 1,8 milliard de mètres cubes. La digue a 90 mètres de haut. Cette dernière a été endommagée lors de l'invasion américaine de l'automne 2001, mais réparée dès 2002[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le barrage de Kajakai, dans la province d'Helmand, a créé un énorme réservoir d'une capacité de 1,8 milliard de mètres cubes. La digue a 90 mètres de haut. Cette dernière a été endommagée lors de l'invasion américaine de l'automne 2001, mais réparée dès 2002.
 Des barrages sur la rivière ont également été construits à Saraj et à Boghra (aux environs de Girichk, ville du piémont des montagnes), dans le but de prélever l'eau de l'Helmand pour l'irrigation. Le barrage de Boghra fait partie d'un important complexe d'irrigation vers de larges secteurs de terres sèches mais fertiles, situées en rive droite de la rivière, c'est-à-dire les zones de Marja, Nad-e Ali et Chamalan.
 </t>
         </is>
@@ -605,7 +623,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Helmand_(rivi%C3%A8re)</t>
+          <t>Helmand_(rivière)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -623,22 +641,133 @@
           <t>Observation des débits de l'Helmand</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pour l'ensemble des cours d'eau qui convergent vers les hamouns du Sistan, le débit annuel est estimé à 7,5 milliards de mètres cubes[4], c'est-à-dire près de 240 mètres cubes par seconde.
-Débits annuels et module
-Pour le seul Helmand (sans les autres tributaires des hamouns), les chiffres des débits annuels, mesurés à Borjak (une vingtaine de kilomètres avant le début du delta en territoire afghan), ont été les suivants[5] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour l'ensemble des cours d'eau qui convergent vers les hamouns du Sistan, le débit annuel est estimé à 7,5 milliards de mètres cubes, c'est-à-dire près de 240 mètres cubes par seconde.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Helmand_(rivière)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Helmand_(rivi%C3%A8re)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Observation des débits de l'Helmand</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Débits annuels et module</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour le seul Helmand (sans les autres tributaires des hamouns), les chiffres des débits annuels, mesurés à Borjak (une vingtaine de kilomètres avant le début du delta en territoire afghan), ont été les suivants :
 Ce qui donne une moyenne de 5,77 kilomètres cubes par an (calculée sur 36 ans). Le débit annuel moyen ou module est donc de 183 mètres cubes par seconde.
-Répartition mensuelle
-Le tableau suivant reprend les moyennes des mesures des débits mensuels effectuées sur l'Helmand au niveau du barrage de Kajakai, et sur l'Arghandab le seul grand affluent en aval du barrage. Pour être complet, la troisième série de valeurs affiche les débits mesurés à Chahar Burjak localité située dans le désert du Sistan, loin en aval du confluent des deux cours d'eau et proche du delta de l'Helmand.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Helmand_(rivière)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Helmand_(rivi%C3%A8re)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Observation des débits de l'Helmand</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Répartition mensuelle</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tableau suivant reprend les moyennes des mesures des débits mensuels effectuées sur l'Helmand au niveau du barrage de Kajakai, et sur l'Arghandab le seul grand affluent en aval du barrage. Pour être complet, la troisième série de valeurs affiche les débits mesurés à Chahar Burjak localité située dans le désert du Sistan, loin en aval du confluent des deux cours d'eau et proche du delta de l'Helmand.
 Ces mesures ont été faites entre 1953 et 1965.
-Source[6] :
+Source :
 Pour la période en question, un peu plus de l'équivalent du débit de l'Arghandab est donc entièrement consommé, essentiellement par l'irrigation. On note une différence entre le débit de l'Helmand calculé sur la période 1953-1965 (13 ans) et le même débit calculé durant la période 1948-1983 (voir plus haut). Cette différence est parfaitement expliquée par les irrégularités annuelles importantes de la rivière.
-Les débits mensuels en aval du barrage de Kajakai
-Le régime de l'Helmand est de type nival avec crues de printemps, c’est-à-dire de fin mars à début juin, avec un maximum en avril-mai.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Helmand_(rivière)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Helmand_(rivi%C3%A8re)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Observation des débits de l'Helmand</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Répartition mensuelle</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Les débits mensuels en aval du barrage de Kajakai</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le régime de l'Helmand est de type nival avec crues de printemps, c’est-à-dire de fin mars à début juin, avec un maximum en avril-mai.
 La rivière est en effet essentiellement alimentée par la fonte des neiges.
 Quant à l'étiage, il a lieu en automne-hiver, d'octobre à janvier, avec un minimum en novembre.
-Le débit du la rivière à l'aval du barrage de Kajakai a été observé pendant 13 ans (1947-1960)[7].
+Le débit du la rivière à l'aval du barrage de Kajakai a été observé pendant 13 ans (1947-1960).
 À Kajakai, le débit annuel moyen ou module observé sur cette période était de 201 m3/s pour un bassin versant de 46,600 km2.
 La lame d'eau écoulée dans cette partie du bassin versant de la rivière - de loin la plus importante du point de vue de l'écoulement - atteint ainsi le chiffre de 136 millimètres par an.
 Débit moyen mensuel (en m3/s) Station hydrologique : Kajakai (données calculées sur 13 ans)
@@ -646,65 +775,69 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Helmand_(rivi%C3%A8re)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Helmand_(rivi%C3%A8re)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Helmand_(rivière)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Helmand_(rivi%C3%A8re)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Irrigation et partage de l'eau</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">La cuvette du Sistan se trouve hydrologiquement en fin de parcours d'un grand bassin versant endoréique de 289 000 km2, rassemblant quatre cours d'eau importants dont l'Helmand est de loin le plus important. Ce grand bassin versant est inégalement réparti entre l'Iran, l'Afghanistan et, très partiellement, le Pakistan. Mais c'est aussi une des régions les plus sèches de la planète. En ces lieux, l'eau est la vie, et elle y est particulièrement convoitée. Tout captage d'eau en amont (Afghanistan) peut appauvrir l'aval et y créer des déséquilibres écologiques et économiques considérables. Or ces captages d'eau en amont ont continuellement augmenté depuis les années 1960, lorsqu'avec la construction de barrages et de réseaux de canaux d'irrigation, on a considérablement augmenté les surfaces irriguées.
-Le débit annuel moyen ou module de l'Helmand est de 183 m3/s, mais peut varier considérablement (2 000 m3/s lors des crues et 56 m3/s à l'étiage[8]). Quelque 70 % des terres arables en aval de la retenue de Kajakai par exemple sont irrigués au moyen de nombreux canaux construits depuis les années 1960[9]. Pour ce faire, près des deux tiers des eaux de l'Helmand aurait été utilisée[10].
+Le débit annuel moyen ou module de l'Helmand est de 183 m3/s, mais peut varier considérablement (2 000 m3/s lors des crues et 56 m3/s à l'étiage). Quelque 70 % des terres arables en aval de la retenue de Kajakai par exemple sont irrigués au moyen de nombreux canaux construits depuis les années 1960. Pour ce faire, près des deux tiers des eaux de l'Helmand aurait été utilisée.
 Un accord signé en 1973 entre l'Afghanistan et l'Iran prévoit que l'Iran a un droit d'utilisation de 22 mètres cubes par seconde des eaux du fleuve, plus éventuellement 4 mètres cubes supplémentaires, soit au total quelque 820 millions de mètres cubes par an.
 Une dispute entre l'Afghanistan et l'Iran fait référence à une demande de l'Iran sur cette partie des eaux à laquelle il a droit.
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Helmand_(rivi%C3%A8re)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Helmand_(rivi%C3%A8re)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Helmand_(rivière)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Helmand_(rivi%C3%A8re)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Villes et localités traversées</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">À l'inverse de celles de l'Arghandab, les rives du haut et du moyen bassin de l'Helmand sont peu peuplées. Il y a peu de localités notables. Le peuplement devient plus dense lorsque le fleuve aborde la plaine en aval du barrage de Kajakai.
 On doit citer Sangin, Girichk et Lashkar Gah (également appelée Bost).
@@ -716,33 +849,35 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Helmand_(rivi%C3%A8re)</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Helmand_(rivi%C3%A8re)</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Helmand_(rivière)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Helmand_(rivi%C3%A8re)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Menaces écologiques</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La dégradation de l'environnement en Afghanistan, comme partout, peut être causée par divers facteurs, naturels ou anthropiques.
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>La dégradation de l'environnement en Afghanistan, comme partout, peut être causée par divers facteurs, naturels ou anthropiques.
 La menace naturelle clé est la baisse des précipitations. Mais actuellement les dégradations dues à l'activité humaine prédominent nettement.
 Les principales menaces écologiques dans le bassin de l'Hilmand, et plus particulièrement au niveau des hamouns du Sistan, incluent la baisse de la quantité d'eau disponible et la dégradation des terres :
 La baisse de la quantité d'eau de l'Hilmand peut être liée à :
@@ -758,9 +893,43 @@
 La surpâture non soutenable.
 Des pratiques agricoles inappropriées, y compris la conversion de pâturages en champs labourables et la construction de routes.
 L'érosion éolienne et le dépôt de sable à longue distance.
-Enfin le dépôt de limon charrié par le fleuve vers les hamouns, aggravé par la déforestation, peut réduire l'étendue des lacs, donc des zones humides. L'UNEP estimait en 2003 que l'avance de l'Helmand dans l'Hamoun-e Puzak était de 20 kilomètres pour les dernières 120 années.
-La pression démographique
-La population de l'Afghanistan a crû de plus de 300 % depuis 1950, où elle se montait à 8,96 millions. Une croissance similaire a eu lieu dans le bassin de l'Helmand et du Sistan.
+Enfin le dépôt de limon charrié par le fleuve vers les hamouns, aggravé par la déforestation, peut réduire l'étendue des lacs, donc des zones humides. L'UNEP estimait en 2003 que l'avance de l'Helmand dans l'Hamoun-e Puzak était de 20 kilomètres pour les dernières 120 années.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Helmand_(rivière)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Helmand_(rivi%C3%A8re)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Menaces écologiques</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>La pression démographique</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La population de l'Afghanistan a crû de plus de 300 % depuis 1950, où elle se montait à 8,96 millions. Une croissance similaire a eu lieu dans le bassin de l'Helmand et du Sistan.
 Bien des gens se sont établis le long du fleuve et près des terres humides. Cela a impliqué des prélèvements d'eau croissants, et ce, surtout par des installations informelles grandes ou petites, et par creusement de puits.
 Sous l'effet du conflit, beaucoup de nouveaux villages ont été édifiés. Les personnes déplacées, réfugiés et exilés de retour au pays, ont un besoin d'eau immédiat. Ils prennent l'eau de la source la plus proche, souvent avec l'aide d'organisations humanitaires, bien que ce type de solution puisse mener à d'importantes dégradations et ne constitue nullement une solution soutenable. C'est d'autant plus préjudiciable que ces camps peuvent devenir semi-permanents.
 Notons que cette problématique démographique est commune à toutes les régions sèches de la planète, et notamment au Sahel africain.
@@ -768,31 +937,33 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Helmand_(rivi%C3%A8re)</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Helmand_(rivi%C3%A8re)</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Helmand_(rivière)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Helmand_(rivi%C3%A8re)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Affluents principaux</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>D'amont en aval :
 Le Markhana, petite mais abondante rivière venue des montagnes du Koh-i Baba, est le premier cours d'eau notable à lui apporter ses eaux en rive droite à Dahane Richqa.
